--- a/imporium-cards/res/imporium_recipe_cards.xlsx
+++ b/imporium-cards/res/imporium_recipe_cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiKe\Documents\GitHub\Imporium\imporium-cards\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B3FE4-C723-49E6-AB94-8B98328EBFA1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C53188-AEE0-4173-9AF5-B6D4DA1F5CF2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12216" xr2:uid="{7CA0BD61-EAFB-4BDB-83B0-FA16190894F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{7CA0BD61-EAFB-4BDB-83B0-FA16190894F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="230">
   <si>
     <t>Index</t>
   </si>
@@ -79,9 +79,6 @@
     <t>The music is very soothing and then in bonks you on the head</t>
   </si>
   <si>
-    <t>Boisterous Bassinette</t>
-  </si>
-  <si>
     <t>Unsavoury Sucker</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>../Graphics/Cards/</t>
   </si>
   <si>
-    <t>I would put my baby in it, but I prefer to be the one talking to my child…</t>
-  </si>
-  <si>
     <t>Pipette of Precision</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Wistful Weight Set</t>
   </si>
   <si>
-    <t>If equipped: If you receive a gift you may discard it as well as the Mug of Mediation and cancel its effects. You may select one piece of equipment from the gifting player's inventory and immediately equip it.</t>
-  </si>
-  <si>
     <t>Cleaning up never felt so much like robbery</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
   </si>
   <si>
     <t>Salve of Salvation</t>
-  </si>
-  <si>
-    <t>When consumed gain 3 life</t>
   </si>
   <si>
     <t>Qty</t>
@@ -353,9 +341,6 @@
     <t>2C</t>
   </si>
   <si>
-    <t>If equipped: Once per turn this feather duster can be used (during the IMP ESCAPE! Phase to deflect one imp (rather than the imp attacking your laboratory, your flasks or you, it is discarded).</t>
-  </si>
-  <si>
     <t>Cost_2,png</t>
   </si>
   <si>
@@ -434,18 +419,6 @@
     <t>If an effect targets you or one of your imps, you may give the activating apprentice this bouquet to have them target another player.</t>
   </si>
   <si>
-    <t>If equipped: Discard lab card to destroy target laboratory component</t>
-  </si>
-  <si>
-    <t>If equipped: Discard lab card to exchange any two imps on the table</t>
-  </si>
-  <si>
-    <t>If equipped, at the end of the action phase, if there is at least one imp remaining in the portal, you may place one of these imps in one of your aspirators and process that imp</t>
-  </si>
-  <si>
-    <t>If equipped: Discard a card to move one imp from the portal directly to a machine component</t>
-  </si>
-  <si>
     <t>When consumed, pick a colour of imp and all imps of that type are immediately destroyed</t>
   </si>
   <si>
@@ -458,138 +431,18 @@
     <t>When consumed, return up to two imps from the portal to the supply.</t>
   </si>
   <si>
-    <t>If equipped: Spend 1HP for +1 imp.</t>
-  </si>
-  <si>
-    <t>If equipped: You may store up to two (2) imps on this card from dispensers. Imps may be freely removed from this card when recipes become available.</t>
-  </si>
-  <si>
     <t>Receiving player must give you one imp from one of their recipes. Treat this imp as if it was received via a dispenser.</t>
   </si>
   <si>
-    <t>If equipped: Discard a card to activate this footwear and immediately place up to two lab cards in your laboratory</t>
-  </si>
-  <si>
-    <t>Give to target player to force target player to reveal their hand. Pick one card from the hand and replace it with a card of the cost -2</t>
-  </si>
-  <si>
-    <t>Discard one card to ignore up to two damage caused by escaping imps this turn</t>
-  </si>
-  <si>
     <t>Give to target player to use the action of one of that player's equipped items (this does not exhaust the item) - activation costs must still be paid</t>
   </si>
   <si>
-    <t>When consumed scare two imps out of another player's machine and/or recipes (the imps return to the portal)</t>
-  </si>
-  <si>
-    <t>If equipped: recipes you control cost one fewer imp of any colour to complete</t>
-  </si>
-  <si>
     <t>Boundless Bench</t>
   </si>
   <si>
-    <t>If equipped: you may have up to two (2) additional active recipes on your workbench</t>
-  </si>
-  <si>
-    <t>{"M","&lt;&gt;","M"}</t>
-  </si>
-  <si>
-    <t>{"F","R","C","C"}</t>
-  </si>
-  <si>
-    <t>{"A","L"}</t>
-  </si>
-  <si>
-    <t>{"W","W","C","C"}</t>
-  </si>
-  <si>
-    <t>{"A","E","F","L","R","W"}</t>
-  </si>
-  <si>
-    <t>{"A","E","F","L","R","W","C","C"}</t>
-  </si>
-  <si>
-    <t>{"A","E","R"}</t>
-  </si>
-  <si>
-    <t>{"A","R","W"}</t>
-  </si>
-  <si>
-    <t>{"E","L","R"}</t>
-  </si>
-  <si>
-    <t>{"E","R","W"}</t>
-  </si>
-  <si>
-    <t>{"A","L","R"}</t>
-  </si>
-  <si>
-    <t>{"A","A","L"}</t>
-  </si>
-  <si>
-    <t>{"C","C","C","C","C","C","C","C","C","C"}</t>
-  </si>
-  <si>
-    <t>{"M","M"}</t>
-  </si>
-  <si>
-    <t>{"M","M","&lt;&gt;","M","M","&lt;&gt;","M","M"}</t>
-  </si>
-  <si>
-    <t>{"W","C"}</t>
-  </si>
-  <si>
-    <t>{"F","F","F","F","C","C"}</t>
-  </si>
-  <si>
-    <t>{"E","F","L","R","C","C"}</t>
-  </si>
-  <si>
-    <t>{"A","A","F","F"}</t>
-  </si>
-  <si>
-    <t>{"M","M","M","&lt;&gt;","M","M","M","C","C","C"}</t>
-  </si>
-  <si>
-    <t>{"R","W","C","C"}</t>
-  </si>
-  <si>
-    <t>{"L","W","C"}</t>
-  </si>
-  <si>
-    <t>{"C","C"}</t>
-  </si>
-  <si>
-    <t>{"A","F","F","R","R"}</t>
-  </si>
-  <si>
-    <t>{"A","E","F","L"}</t>
-  </si>
-  <si>
-    <t>{"F","R","W","W"}</t>
-  </si>
-  <si>
-    <t>{"L","L","L","R","R","W","W"}</t>
-  </si>
-  <si>
-    <t>{"L","L"}</t>
-  </si>
-  <si>
-    <t>{"A","E","L","C"}</t>
-  </si>
-  <si>
-    <t>{"E","F","L","R"}</t>
-  </si>
-  <si>
-    <t>{"A","R","R","W","W"}</t>
-  </si>
-  <si>
     <t>Recipe_Title</t>
   </si>
   <si>
-    <t>Recipe_Imps</t>
-  </si>
-  <si>
     <t>Recipe_Purchase</t>
   </si>
   <si>
@@ -608,24 +461,9 @@
     <t>Recipe_Art</t>
   </si>
   <si>
-    <t>./res/art/00-0628c2.jpg</t>
-  </si>
-  <si>
     <t>./res/art/Ambling_Bellows.png</t>
   </si>
   <si>
-    <t>./res/art/Obsession-Princess-Disney-Villains-Perfume-Bottles-Hades-from-Hercules.jpg</t>
-  </si>
-  <si>
-    <t>./res/art/CD1290YSTT-CP.jpg</t>
-  </si>
-  <si>
-    <t>./res/art/d7c44e462b0d002301dbc721cd0fda46.jpg</t>
-  </si>
-  <si>
-    <t>./res/art/sucker.jpg</t>
-  </si>
-  <si>
     <t>./res/art/evil-star-wars-bouquet.png</t>
   </si>
   <si>
@@ -642,6 +480,243 @@
   </si>
   <si>
     <t>./res/art/sucker.png</t>
+  </si>
+  <si>
+    <t>Cost_01</t>
+  </si>
+  <si>
+    <t>Cost_02</t>
+  </si>
+  <si>
+    <t>Cost_03</t>
+  </si>
+  <si>
+    <t>Cost_04</t>
+  </si>
+  <si>
+    <t>Cost_05</t>
+  </si>
+  <si>
+    <t>Cost_06</t>
+  </si>
+  <si>
+    <t>Cost_07</t>
+  </si>
+  <si>
+    <t>Cost_08</t>
+  </si>
+  <si>
+    <t>Cost_09</t>
+  </si>
+  <si>
+    <t>Cost_10</t>
+  </si>
+  <si>
+    <t>Cost_11</t>
+  </si>
+  <si>
+    <t>Cost_12</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Imp ESCAPE!</t>
+  </si>
+  <si>
+    <t>Reversed Polarity</t>
+  </si>
+  <si>
+    <t>Vortiform Packer</t>
+  </si>
+  <si>
+    <t>Rubber Shortage</t>
+  </si>
+  <si>
+    <t>Imp Surge</t>
+  </si>
+  <si>
+    <t>Gassy Giant</t>
+  </si>
+  <si>
+    <t>Two imps escape for each player from incomplete recipe cards under their control</t>
+  </si>
+  <si>
+    <t>Each player passes the imps in their aspirator to the player to the left.</t>
+  </si>
+  <si>
+    <t>Add two imps per player to the portal vortex</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>./res/art/ribald_racket.png</t>
+  </si>
+  <si>
+    <t>./res/art/creepy_mirror.png</t>
+  </si>
+  <si>
+    <t>./res/art/crooked_wand.png</t>
+  </si>
+  <si>
+    <t>./res/art/torches.png</t>
+  </si>
+  <si>
+    <t>./res/art/furry_footwarmers.png</t>
+  </si>
+  <si>
+    <t>./res/art/golden_elixir.png</t>
+  </si>
+  <si>
+    <t>./res/art/green_potion.png</t>
+  </si>
+  <si>
+    <t>./res/art/wistful_weight.png</t>
+  </si>
+  <si>
+    <t>./res/art/monkey_cluster.png</t>
+  </si>
+  <si>
+    <t>Boisterous Bassinet</t>
+  </si>
+  <si>
+    <t>./res/art/Hello_Kitty_Fork_Set.png</t>
+  </si>
+  <si>
+    <t>./res/art/hobbyhorse_cab.png</t>
+  </si>
+  <si>
+    <t>./res/art/duster_fence.png</t>
+  </si>
+  <si>
+    <t>./res/art/lure.png</t>
+  </si>
+  <si>
+    <t>./res/art/bench.png</t>
+  </si>
+  <si>
+    <t>./res/art/napkin.png</t>
+  </si>
+  <si>
+    <t>./res/art/gear_golem.png</t>
+  </si>
+  <si>
+    <t>./res/art/brazier.png</t>
+  </si>
+  <si>
+    <t>./res/art/reborn-stroller.png</t>
+  </si>
+  <si>
+    <t>./res/art/robench.png</t>
+  </si>
+  <si>
+    <t>./res/art/salve.png</t>
+  </si>
+  <si>
+    <t>./res/art/crinkle_carafe.png</t>
+  </si>
+  <si>
+    <t>./res/art/spell-scroll.png</t>
+  </si>
+  <si>
+    <t>./res/art/Swarm-Spider-Man.png</t>
+  </si>
+  <si>
+    <t>./res/art/tablesetting.png</t>
+  </si>
+  <si>
+    <t>./res/art/Thran_Tome.png</t>
+  </si>
+  <si>
+    <t>./res/art/mediation_mug.png</t>
+  </si>
+  <si>
+    <t>./res/art/victrola.png</t>
+  </si>
+  <si>
+    <t>./res/art/volumetric.png</t>
+  </si>
+  <si>
+    <t>Equip: +1 imp</t>
+  </si>
+  <si>
+    <t>Equip and discard 1 lab card: exchange any two imps on the table</t>
+  </si>
+  <si>
+    <t>Equip and discard 1 lab card: destroy target laboratory component</t>
+  </si>
+  <si>
+    <t>Equip and discard 1 lab card: move one imp from the portal directly to a machine component (ignore imp draw requirements)</t>
+  </si>
+  <si>
+    <t>It's only unsettling from the outside (and the inside)</t>
+  </si>
+  <si>
+    <t>Equip: Sacrifice 1 Stamina to gain +1 Imp. May be done multiple times on a turn as a free action.</t>
+  </si>
+  <si>
+    <t>Equip: Store up to two (2) imps on this card from dispensers. Imps may be freely removed from this card when recipes become available.</t>
+  </si>
+  <si>
+    <t>Equip: If you receive a gift you may discard it as well as the Mug of Mediation and cancel its effects. You may select one piece of equipment from the gifting player's inventory and immediately equip it.</t>
+  </si>
+  <si>
+    <t>Equip: Discard 1 lab card (do not collect the discard bonus) to activate this footwear and immediately place up to two lab cards in your laboratory</t>
+  </si>
+  <si>
+    <t>Equip: Discard 1 lab card to ignore up to two damage caused by escaping imps this turn</t>
+  </si>
+  <si>
+    <t>When consumed scare two imps out of another player's machine and/or recipes (the imps return to the portal). This card can be conusmed at any point.</t>
+  </si>
+  <si>
+    <t>When consumed gain 3 Stamina</t>
+  </si>
+  <si>
+    <t>Equip: recipes you control cost one fewer imp of any colour to complete</t>
+  </si>
+  <si>
+    <t>Give to target player to force them to unequip up to two pieces of equipment.</t>
+  </si>
+  <si>
+    <t>Equip: Once per turn this feather duster can be used to deflect one imp (rather than the imp freeing other imps from your recipes or attacking you, it is discarded).</t>
+  </si>
+  <si>
+    <t>Equip: you may have up to two (2) additional active recipes on your workbench</t>
+  </si>
+  <si>
+    <t>If the portal has been opened this round, all imps in aspirators return to the portal. If the portal has not been opened, all players receive -1 Imps</t>
+  </si>
+  <si>
+    <t>Each player must destroy (discard with no bonus) one tube card from their lab machine if possible.</t>
+  </si>
+  <si>
+    <t>Each player destroys one of their aspirators (discard with no bonus)</t>
   </si>
 </sst>
 </file>
@@ -695,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -704,6 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,58 +1094,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886885A1-0608-4736-98B0-381AE158872A}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="85.33203125" customWidth="1"/>
-    <col min="9" max="9" width="74" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="85.28515625" customWidth="1"/>
+    <col min="20" max="20" width="74" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" t="s">
+        <v>157</v>
       </c>
       <c r="L1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="O1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1079,38 +1193,53 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>154</v>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2">
+        <v>163</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1120,41 +1249,55 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>155</v>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3">
+        <v>164</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="R3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="S3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1164,41 +1307,51 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>156</v>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="3">
+        <v>165</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="R4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="S4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1209,40 +1362,46 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="R5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="S5" t="s">
+        <v>211</v>
+      </c>
+      <c r="T5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>147</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1253,37 +1412,55 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="3">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="3">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="R6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" t="s">
-        <v>202</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>148</v>
+      </c>
+      <c r="W6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1293,998 +1470,1585 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>160</v>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7">
+        <v>165</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="R7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="S7" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>149</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="3">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="R8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>215</v>
+      </c>
+      <c r="V8" t="s">
+        <v>200</v>
+      </c>
+      <c r="W8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="R9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L9" t="s">
-        <v>204</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>131</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>150</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
         <v>168</v>
       </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="R10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10">
+      <c r="T10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" t="s">
+        <v>190</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>169</v>
+      <c r="D11" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11">
+        <v>166</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>188</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>170</v>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="3">
+        <v>164</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>130</v>
+      </c>
+      <c r="T12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
+        <v>184</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13">
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" t="s">
+        <v>133</v>
+      </c>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>204</v>
+      </c>
+      <c r="W13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" t="s">
+        <v>198</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
+      <c r="R15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>216</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" t="s">
+        <v>199</v>
+      </c>
+      <c r="W15" t="s">
+        <v>79</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="3">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="3">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
+      <c r="R16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V16" t="s">
+        <v>207</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>174</v>
+      <c r="D17" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="3">
+        <v>170</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" t="s">
+      <c r="R17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>217</v>
+      </c>
+      <c r="T17" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s">
+        <v>210</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>175</v>
+      <c r="D18" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="3">
+        <v>171</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
+      <c r="R18" t="s">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>197</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="3">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
+      <c r="R19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>218</v>
+      </c>
+      <c r="T19" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" t="s">
+        <v>208</v>
+      </c>
+      <c r="W19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="3">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="R20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" t="s">
+        <v>206</v>
+      </c>
+      <c r="W20" t="s">
+        <v>86</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>162</v>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3">
+        <v>169</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
+      <c r="R21" t="s">
         <v>6</v>
       </c>
-      <c r="H21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" t="s">
+        <v>186</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22">
+        <v>87</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="R22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W22" t="s">
+        <v>88</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" t="s">
+        <v>187</v>
+      </c>
+      <c r="W23" t="s">
+        <v>90</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="3">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" t="s">
+      <c r="R24" t="s">
         <v>13</v>
       </c>
-      <c r="M24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="V24" t="s">
+        <v>193</v>
+      </c>
+      <c r="W24" t="s">
+        <v>92</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25">
         <v>3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>224</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" t="s">
+        <v>209</v>
+      </c>
+      <c r="W25" t="s">
+        <v>100</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>163</v>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="3">
+        <v>169</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
+      <c r="R26" t="s">
         <v>6</v>
       </c>
-      <c r="H26" t="s">
-        <v>148</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>220</v>
+      </c>
+      <c r="V26" t="s">
+        <v>182</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="R27" t="s">
         <v>3</v>
       </c>
-      <c r="H27" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27" t="s">
-        <v>97</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>135</v>
+      </c>
+      <c r="V27" t="s">
+        <v>192</v>
+      </c>
+      <c r="W27" t="s">
+        <v>93</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="3">
+        <v>95</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" t="s">
+      <c r="R28" t="s">
         <v>13</v>
       </c>
-      <c r="M28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>203</v>
+      </c>
+      <c r="W28" t="s">
+        <v>96</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29">
+        <v>97</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s">
-        <v>150</v>
-      </c>
-      <c r="M29" t="s">
-        <v>102</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" t="s">
+        <v>221</v>
+      </c>
+      <c r="V29" t="s">
+        <v>185</v>
+      </c>
+      <c r="W29" t="s">
+        <v>98</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30">
+        <v>87</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q30">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
+      <c r="R30" t="s">
         <v>13</v>
       </c>
-      <c r="M30" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="V30" t="s">
+        <v>189</v>
+      </c>
+      <c r="W30" t="s">
+        <v>88</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>181</v>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N31">
+        <v>171</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" t="s">
+        <v>222</v>
+      </c>
+      <c r="V31" t="s">
+        <v>202</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q32">
         <v>5</v>
       </c>
-      <c r="G32" t="s">
+      <c r="R32" t="s">
         <v>6</v>
       </c>
-      <c r="H32" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>223</v>
+      </c>
+      <c r="V32" t="s">
+        <v>201</v>
+      </c>
+      <c r="W32" t="s">
+        <v>71</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N33">
+      <c r="R33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" t="s">
+        <v>75</v>
+      </c>
+      <c r="V33" t="s">
+        <v>205</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
         <v>6</v>
       </c>
-      <c r="H34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N34">
+      <c r="S34" t="s">
+        <v>225</v>
+      </c>
+      <c r="V34" t="s">
+        <v>194</v>
+      </c>
+      <c r="W34" t="s">
+        <v>104</v>
+      </c>
+      <c r="X34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
-        <v>110</v>
-      </c>
-      <c r="M35" t="s">
-        <v>109</v>
-      </c>
-      <c r="N35">
+      <c r="S35" t="s">
+        <v>105</v>
+      </c>
+      <c r="V35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W35" t="s">
+        <v>104</v>
+      </c>
+      <c r="X35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q36">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="R36" t="s">
         <v>6</v>
       </c>
-      <c r="H36" t="s">
-        <v>153</v>
-      </c>
-      <c r="M36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N36">
+      <c r="S36" t="s">
+        <v>226</v>
+      </c>
+      <c r="V36" t="s">
+        <v>196</v>
+      </c>
+      <c r="W36" t="s">
+        <v>71</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="R37" t="s">
+        <v>181</v>
+      </c>
+      <c r="S37" t="s">
+        <v>178</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="R38" t="s">
+        <v>181</v>
+      </c>
+      <c r="S38" t="s">
+        <v>227</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="R39" t="s">
+        <v>181</v>
+      </c>
+      <c r="S39" t="s">
+        <v>179</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="R40" t="s">
+        <v>181</v>
+      </c>
+      <c r="S40" t="s">
+        <v>228</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="R41" t="s">
+        <v>181</v>
+      </c>
+      <c r="S41" t="s">
+        <v>180</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="R42" t="s">
+        <v>181</v>
+      </c>
+      <c r="S42" t="s">
+        <v>229</v>
+      </c>
+      <c r="X42">
         <v>1</v>
       </c>
     </row>

--- a/imporium-cards/res/imporium_recipe_cards.xlsx
+++ b/imporium-cards/res/imporium_recipe_cards.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiKe\Documents\GitHub\Imporium\imporium-cards\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C53188-AEE0-4173-9AF5-B6D4DA1F5CF2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46850804-61E4-45BD-B5DF-113D84032510}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{7CA0BD61-EAFB-4BDB-83B0-FA16190894F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12216" xr2:uid="{7CA0BD61-EAFB-4BDB-83B0-FA16190894F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="243">
   <si>
     <t>Index</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Flurry of Fliers</t>
   </si>
   <si>
-    <t>Consume to immediately sell up to three items in your inventory</t>
-  </si>
-  <si>
     <t>Cost_2M.png</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Cost_2,png</t>
   </si>
   <si>
-    <t>Give to another player to redirect an imp sent at you to that player.</t>
-  </si>
-  <si>
     <t>Lucky Lure</t>
   </si>
   <si>
@@ -563,15 +557,6 @@
     <t>Gassy Giant</t>
   </si>
   <si>
-    <t>Two imps escape for each player from incomplete recipe cards under their control</t>
-  </si>
-  <si>
-    <t>Each player passes the imps in their aspirator to the player to the left.</t>
-  </si>
-  <si>
-    <t>Add two imps per player to the portal vortex</t>
-  </si>
-  <si>
     <t>EVENT</t>
   </si>
   <si>
@@ -662,15 +647,9 @@
     <t>./res/art/volumetric.png</t>
   </si>
   <si>
-    <t>Equip: +1 imp</t>
-  </si>
-  <si>
     <t>Equip and discard 1 lab card: exchange any two imps on the table</t>
   </si>
   <si>
-    <t>Equip and discard 1 lab card: destroy target laboratory component</t>
-  </si>
-  <si>
     <t>Equip and discard 1 lab card: move one imp from the portal directly to a machine component (ignore imp draw requirements)</t>
   </si>
   <si>
@@ -710,13 +689,74 @@
     <t>Equip: you may have up to two (2) additional active recipes on your workbench</t>
   </si>
   <si>
-    <t>If the portal has been opened this round, all imps in aspirators return to the portal. If the portal has not been opened, all players receive -1 Imps</t>
-  </si>
-  <si>
-    <t>Each player must destroy (discard with no bonus) one tube card from their lab machine if possible.</t>
-  </si>
-  <si>
-    <t>Each player destroys one of their aspirators (discard with no bonus)</t>
+    <t>Two imps escape (player's choice) for each player from incomplete recipe cards under their control. If there are fewer than two imps on all incomplete recipes under a player's control then all imps escape for that player.</t>
+  </si>
+  <si>
+    <t>All imps presently in aspirators return to the portal area.</t>
+  </si>
+  <si>
+    <t>Each player passes the imps in their aspirator(s) to the player to the left. If the receiving player has no aspirators in play, the imps immediately escape.</t>
+  </si>
+  <si>
+    <t>Add two imps per player to the portal area.</t>
+  </si>
+  <si>
+    <t>Each player must discard one tube card from their lab machine if possible.</t>
+  </si>
+  <si>
+    <t>Each player discards one aspirator that is presently in play if possible.</t>
+  </si>
+  <si>
+    <t>Equip: +1 imp (counts as an aspirator when adding imps from the portal)</t>
+  </si>
+  <si>
+    <t>Equip and discard 1 lab card: destroy target laboratory component (move to the owner's discard pile)</t>
+  </si>
+  <si>
+    <t>Neigh, I say, neigh!</t>
+  </si>
+  <si>
+    <t>Just a drop and then you pop…</t>
+  </si>
+  <si>
+    <t>Back, you tiny beasts! 
+- an amateur tennis player</t>
+  </si>
+  <si>
+    <t>Would sir care for some more peas? Sir REALLY should have some more peas…</t>
+  </si>
+  <si>
+    <t>The main downside is that it can only really fill cracked coffee cups.</t>
+  </si>
+  <si>
+    <t>This torch burns only for very special individuals… or everyone, whatever.</t>
+  </si>
+  <si>
+    <t>It definitely seems to be doing part of the work for me (and humming something annoying under its breath)</t>
+  </si>
+  <si>
+    <t>For those times when you imagine you're stronger than you are</t>
+  </si>
+  <si>
+    <t>Apply directly to the sore head</t>
+  </si>
+  <si>
+    <t>It's impressive how quickly they swarm to the sales counter</t>
+  </si>
+  <si>
+    <t>Consume to immediately sell up to two items in your inventory</t>
+  </si>
+  <si>
+    <t>Have atchoo!</t>
+  </si>
+  <si>
+    <t>Give to another player to draw one of the imps in one of their aspirators into yours.</t>
+  </si>
+  <si>
+    <t>Oooooooooooooh… it's SHINY!</t>
+  </si>
+  <si>
+    <t>Well, yes, it would be nice to have room to sleep, but look at how many things I can store on it!</t>
   </si>
 </sst>
 </file>
@@ -1096,85 +1136,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886885A1-0608-4736-98B0-381AE158872A}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="16" width="4.7109375" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="85.28515625" customWidth="1"/>
+    <col min="5" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" customWidth="1"/>
+    <col min="19" max="19" width="85.33203125" customWidth="1"/>
     <col min="20" max="20" width="74" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>139</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>140</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>141</v>
-      </c>
-      <c r="T1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" t="s">
-        <v>143</v>
       </c>
       <c r="W1" t="s">
         <v>57</v>
@@ -1183,7 +1226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1194,19 +1237,23 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1221,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T2" t="s">
         <v>4</v>
@@ -1230,16 +1277,16 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1253,18 +1300,20 @@
         <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1279,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
@@ -1288,7 +1337,7 @@
         <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W3" t="s">
         <v>60</v>
@@ -1297,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1308,16 +1357,20 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1327,13 +1380,13 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s">
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T4" t="s">
         <v>9</v>
@@ -1342,16 +1395,16 @@
         <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1365,16 +1418,19 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1383,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="T5" t="s">
         <v>11</v>
@@ -1392,7 +1448,7 @@
         <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W5" t="s">
         <v>61</v>
@@ -1401,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1409,34 +1465,37 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="Q6" s="3">
         <v>7</v>
@@ -1451,7 +1510,7 @@
         <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W6" t="s">
         <v>67</v>
@@ -1460,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1471,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1498,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T7" t="s">
         <v>16</v>
@@ -1507,7 +1566,7 @@
         <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>63</v>
@@ -1516,12 +1575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1530,46 +1589,46 @@
         <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
         <v>13</v>
       </c>
       <c r="T8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="V8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="W8" t="s">
         <v>64</v>
@@ -1578,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1592,10 +1651,13 @@
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -1604,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T9" t="s">
         <v>19</v>
@@ -1613,16 +1675,16 @@
         <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1636,31 +1698,31 @@
         <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10" t="s">
         <v>13</v>
@@ -1669,16 +1731,16 @@
         <v>20</v>
       </c>
       <c r="V10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1689,15 +1751,17 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1714,22 +1778,22 @@
         <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T11" t="s">
         <v>73</v>
       </c>
       <c r="V11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1740,25 +1804,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1773,22 +1837,22 @@
         <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T12" t="s">
         <v>24</v>
       </c>
       <c r="V12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1799,16 +1863,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -1817,22 +1884,22 @@
         <v>23</v>
       </c>
       <c r="S13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T13" t="s">
         <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="W13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1843,28 +1910,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1878,22 +1945,22 @@
         <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1904,19 +1971,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1925,22 +1995,22 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T15" t="s">
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1954,34 +2024,37 @@
         <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="Q16" s="3">
         <v>7</v>
@@ -1990,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W16" t="s">
         <v>62</v>
@@ -2002,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2013,21 +2086,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2042,22 +2117,22 @@
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2068,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2095,22 +2170,22 @@
         <v>3</v>
       </c>
       <c r="S18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T18" t="s">
         <v>47</v>
       </c>
       <c r="V18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2121,22 +2196,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="3">
         <v>4</v>
@@ -2145,22 +2220,22 @@
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="T19" t="s">
         <v>48</v>
       </c>
       <c r="V19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="W19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2171,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="Q20" s="3">
         <v>3</v>
@@ -2195,16 +2270,16 @@
         <v>49</v>
       </c>
       <c r="V20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="W20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2215,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2242,22 +2317,22 @@
         <v>6</v>
       </c>
       <c r="S21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T21" t="s">
         <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2268,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -2289,16 +2364,16 @@
         <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2309,19 +2384,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -2332,17 +2407,20 @@
       <c r="S23" t="s">
         <v>56</v>
       </c>
+      <c r="T23" t="s">
+        <v>229</v>
+      </c>
       <c r="V23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2353,28 +2431,28 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="3">
         <v>6</v>
@@ -2382,17 +2460,20 @@
       <c r="R24" t="s">
         <v>13</v>
       </c>
+      <c r="T24" t="s">
+        <v>228</v>
+      </c>
       <c r="V24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="W24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2403,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -2424,22 +2505,22 @@
         <v>3</v>
       </c>
       <c r="S25" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="T25" t="s">
         <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2450,16 +2531,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2477,19 +2558,22 @@
         <v>6</v>
       </c>
       <c r="S26" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="V26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2500,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -2518,19 +2602,22 @@
         <v>3</v>
       </c>
       <c r="S27" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="T27" t="s">
+        <v>231</v>
       </c>
       <c r="V27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="W27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2541,22 +2628,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="3">
         <v>4</v>
@@ -2564,17 +2651,20 @@
       <c r="R28" t="s">
         <v>13</v>
       </c>
+      <c r="T28" t="s">
+        <v>232</v>
+      </c>
       <c r="V28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="W28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2585,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -2606,19 +2696,22 @@
         <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="T29" t="s">
+        <v>233</v>
       </c>
       <c r="V29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2629,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -2646,17 +2739,20 @@
       <c r="R30" t="s">
         <v>13</v>
       </c>
+      <c r="T30" t="s">
+        <v>235</v>
+      </c>
       <c r="V30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2667,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2692,19 +2788,22 @@
         <v>23</v>
       </c>
       <c r="S31" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="T31" t="s">
+        <v>236</v>
       </c>
       <c r="V31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2718,22 +2817,22 @@
         <v>70</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="I32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -2742,10 +2841,13 @@
         <v>6</v>
       </c>
       <c r="S32" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="T32" t="s">
+        <v>234</v>
       </c>
       <c r="V32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W32" t="s">
         <v>71</v>
@@ -2754,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2765,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2792,38 +2894,43 @@
         <v>23</v>
       </c>
       <c r="S33" t="s">
-        <v>75</v>
+        <v>238</v>
+      </c>
+      <c r="T33" t="s">
+        <v>237</v>
       </c>
       <c r="V33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2840,38 +2947,43 @@
         <v>6</v>
       </c>
       <c r="S34" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="T34" t="s">
+        <v>239</v>
       </c>
       <c r="V34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="W34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -2888,24 +3000,27 @@
         <v>3</v>
       </c>
       <c r="S35" t="s">
-        <v>105</v>
+        <v>240</v>
+      </c>
+      <c r="T35" t="s">
+        <v>241</v>
       </c>
       <c r="V35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="W35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -2914,22 +3029,22 @@
         <v>70</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" t="s">
         <v>169</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" t="s">
         <v>164</v>
-      </c>
-      <c r="H36" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" t="s">
-        <v>166</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -2938,10 +3053,13 @@
         <v>6</v>
       </c>
       <c r="S36" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="T36" t="s">
+        <v>242</v>
       </c>
       <c r="V36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="W36" t="s">
         <v>71</v>
@@ -2950,103 +3068,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S37" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="X37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S38" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="X38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R39" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S39" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R40" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="R41" t="s">
         <v>176</v>
       </c>
-      <c r="R41" t="s">
-        <v>181</v>
-      </c>
       <c r="S41" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S42" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="X42">
         <v>1</v>

--- a/imporium-cards/res/imporium_recipe_cards.xlsx
+++ b/imporium-cards/res/imporium_recipe_cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiKe\Documents\GitHub\Imporium\imporium-cards\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46850804-61E4-45BD-B5DF-113D84032510}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB02A2-2DC8-4618-A668-EB5A30C5D6A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12216" xr2:uid="{7CA0BD61-EAFB-4BDB-83B0-FA16190894F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="243">
   <si>
     <t>Index</t>
   </si>
@@ -196,9 +196,6 @@
     <t>I could swear I didn't have that moustache a minute ago…</t>
   </si>
   <si>
-    <t>When consumed, destroy up to one imp of each colour you control to take the action provided by that imp</t>
-  </si>
-  <si>
     <t>Cost_Image</t>
   </si>
   <si>
@@ -419,15 +416,9 @@
     <t>Receiving player must immediately discard one lab card from their hand.</t>
   </si>
   <si>
-    <t>When consumed draw two lab cards and play one immediately into your laboratory chain and discard the other (without gaining the discard bonus)</t>
-  </si>
-  <si>
     <t>When consumed, return up to two imps from the portal to the supply.</t>
   </si>
   <si>
-    <t>Receiving player must give you one imp from one of their recipes. Treat this imp as if it was received via a dispenser.</t>
-  </si>
-  <si>
     <t>Give to target player to use the action of one of that player's equipped items (this does not exhaust the item) - activation costs must still be paid</t>
   </si>
   <si>
@@ -659,19 +650,7 @@
     <t>Equip: Sacrifice 1 Stamina to gain +1 Imp. May be done multiple times on a turn as a free action.</t>
   </si>
   <si>
-    <t>Equip: Store up to two (2) imps on this card from dispensers. Imps may be freely removed from this card when recipes become available.</t>
-  </si>
-  <si>
-    <t>Equip: If you receive a gift you may discard it as well as the Mug of Mediation and cancel its effects. You may select one piece of equipment from the gifting player's inventory and immediately equip it.</t>
-  </si>
-  <si>
-    <t>Equip: Discard 1 lab card (do not collect the discard bonus) to activate this footwear and immediately place up to two lab cards in your laboratory</t>
-  </si>
-  <si>
     <t>Equip: Discard 1 lab card to ignore up to two damage caused by escaping imps this turn</t>
-  </si>
-  <si>
-    <t>When consumed scare two imps out of another player's machine and/or recipes (the imps return to the portal). This card can be conusmed at any point.</t>
   </si>
   <si>
     <t>When consumed gain 3 Stamina</t>
@@ -757,6 +736,27 @@
   </si>
   <si>
     <t>Well, yes, it would be nice to have room to sleep, but look at how many things I can store on it!</t>
+  </si>
+  <si>
+    <t>Equip: Store up to two (2) imps on this card as if it were an incomplete recipe. Imps may be freely removed from this card when recipes become available.</t>
+  </si>
+  <si>
+    <t>Pick one of the receiving player's incomplete recipes. The receiving player must give you two imps of their choice from this recipe. Treat this imp as if it was received the laboratory (i.e. it must be placed directly onto an incomplete recipe or it escapes).</t>
+  </si>
+  <si>
+    <t>Equip: If you receive a gift you may discard it as well as the Mug of Mediation and cancel its effects. You may select one unequipped but complete piece of equipment from the gifting player's inventory, gain control of that equipment and immediately equip it.</t>
+  </si>
+  <si>
+    <t>Equip: Discard 1 lab card (do not collect the recycle bonus) to activate this footwear and immediately place up to two lab cards in your laboratory</t>
+  </si>
+  <si>
+    <t>When consumed draw two lab cards and play one immediately into your laboratory chain and discard the other (without gaining the recycle bonus)</t>
+  </si>
+  <si>
+    <t>When consumed, destroy up to one imp of each colour you control to take the action provided by that imp. Imps count as being controlled if they are within your laboratory chain or are on incomplete recipes.</t>
+  </si>
+  <si>
+    <t>When consumed scare two imps (discard) out of another player's machine and/or recipes (the imp controlling player chooses which imps). This card can be conusmed at any point.</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1137,10 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,70 +1160,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="S1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>137</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>138</v>
       </c>
-      <c r="S1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T1" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" t="s">
-        <v>141</v>
-      </c>
       <c r="W1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
         <v>4</v>
@@ -1277,10 +1277,10 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -1297,22 +1297,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1328,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
@@ -1337,10 +1337,10 @@
         <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1357,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1386,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T4" t="s">
         <v>9</v>
@@ -1395,10 +1395,10 @@
         <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1418,19 +1418,19 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1439,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="T5" t="s">
         <v>11</v>
@@ -1448,10 +1448,10 @@
         <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -1468,34 +1468,34 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="3">
         <v>7</v>
@@ -1510,10 +1510,10 @@
         <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T7" t="s">
         <v>16</v>
@@ -1566,10 +1566,10 @@
         <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1589,34 +1589,34 @@
         <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="3">
         <v>5</v>
@@ -1625,13 +1625,13 @@
         <v>13</v>
       </c>
       <c r="T8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="V8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1651,13 +1651,13 @@
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T9" t="s">
         <v>19</v>
@@ -1675,10 +1675,10 @@
         <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1695,31 +1695,31 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="3">
         <v>4</v>
@@ -1731,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="V10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X10">
         <v>2</v>
@@ -1751,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1778,16 +1778,16 @@
         <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -1804,25 +1804,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1837,16 +1837,16 @@
         <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T12" t="s">
         <v>24</v>
       </c>
       <c r="V12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X12">
         <v>1</v>
@@ -1863,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>23</v>
       </c>
       <c r="S13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T13" t="s">
         <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -1910,28 +1910,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1945,16 +1945,16 @@
         <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1995,16 +1995,16 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T15" t="s">
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="W15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X15">
         <v>1</v>
@@ -2024,37 +2024,37 @@
         <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="3">
         <v>7</v>
@@ -2063,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X16">
         <v>1</v>
@@ -2086,22 +2086,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2117,16 +2117,16 @@
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -2140,22 +2140,26 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2164,22 +2168,22 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" t="s">
         <v>3</v>
       </c>
       <c r="S18" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="T18" t="s">
         <v>47</v>
       </c>
       <c r="V18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X18">
         <v>1</v>
@@ -2196,22 +2200,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="3">
         <v>4</v>
@@ -2220,16 +2224,16 @@
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="T19" t="s">
         <v>48</v>
       </c>
       <c r="V19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="W19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X19">
         <v>1</v>
@@ -2246,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="3">
         <v>3</v>
@@ -2270,10 +2274,10 @@
         <v>49</v>
       </c>
       <c r="V20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -2290,16 +2294,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2317,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="S21" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="T21" t="s">
         <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -2343,16 +2347,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -2364,10 +2368,10 @@
         <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -2384,37 +2388,43 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" t="s">
         <v>23</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="T23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="V23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="W23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X23">
         <v>1</v>
@@ -2431,28 +2441,28 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="3">
         <v>6</v>
@@ -2461,13 +2471,13 @@
         <v>13</v>
       </c>
       <c r="T24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="V24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="W24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -2484,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -2505,16 +2515,16 @@
         <v>3</v>
       </c>
       <c r="S25" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="W25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X25">
         <v>1</v>
@@ -2531,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2558,16 +2568,16 @@
         <v>6</v>
       </c>
       <c r="S26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="V26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X26">
         <v>1</v>
@@ -2584,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -2602,16 +2612,16 @@
         <v>3</v>
       </c>
       <c r="S27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="V27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X27">
         <v>1</v>
@@ -2628,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="3">
         <v>4</v>
@@ -2652,13 +2662,13 @@
         <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="V28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="W28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -2675,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -2696,16 +2706,16 @@
         <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="T29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="V29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="W29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X29">
         <v>1</v>
@@ -2722,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -2740,13 +2750,13 @@
         <v>13</v>
       </c>
       <c r="T30" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="V30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X30">
         <v>1</v>
@@ -2757,19 +2767,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2788,16 +2798,16 @@
         <v>23</v>
       </c>
       <c r="S31" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="T31" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="V31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X31">
         <v>2</v>
@@ -2808,31 +2818,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>69</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -2841,16 +2851,16 @@
         <v>6</v>
       </c>
       <c r="S32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="W32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X32">
         <v>1</v>
@@ -2861,22 +2871,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2894,16 +2904,16 @@
         <v>23</v>
       </c>
       <c r="S33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="T33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="V33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X33">
         <v>2</v>
@@ -2914,22 +2924,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2947,16 +2957,16 @@
         <v>6</v>
       </c>
       <c r="S34" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="T34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="V34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X34">
         <v>4</v>
@@ -2967,22 +2977,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -3000,16 +3010,16 @@
         <v>3</v>
       </c>
       <c r="S35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="T35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="W35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X35">
         <v>4</v>
@@ -3020,31 +3030,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -3053,16 +3063,16 @@
         <v>6</v>
       </c>
       <c r="S36" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T36" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="V36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="W36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X36">
         <v>1</v>
@@ -3073,13 +3083,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S37" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="X37">
         <v>2</v>
@@ -3090,13 +3100,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S38" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="X38">
         <v>2</v>
@@ -3107,13 +3117,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S39" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="X39">
         <v>1</v>
@@ -3124,13 +3134,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="R40" t="s">
         <v>173</v>
       </c>
-      <c r="R40" t="s">
-        <v>176</v>
-      </c>
       <c r="S40" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="X40">
         <v>1</v>
@@ -3141,13 +3151,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S41" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="X41">
         <v>1</v>
@@ -3158,13 +3168,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="X42">
         <v>1</v>
